--- a/doc/descrdkit.xlsx
+++ b/doc/descrdkit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borrela2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borrela2\development\molecular-descriptors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C156E8D-1A27-431D-BBE6-8FC751866AEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EAB559-3130-4888-9AD9-DC1FE766C26C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descrdkit" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
   <si>
     <t>MaxEStateIndex</t>
   </si>
@@ -368,13 +368,16 @@
   </si>
   <si>
     <t>Consitution</t>
+  </si>
+  <si>
+    <t>Estate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +508,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -857,9 +876,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1214,11 +1236,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,35 +1249,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>12.923580340853</v>
       </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>-0.82145834599575296</v>
       </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>12.923580340853</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>8.1978331555317294E-2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2208,5 +2242,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/descrdkit.xlsx
+++ b/doc/descrdkit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borrela2\development\molecular-descriptors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EAB559-3130-4888-9AD9-DC1FE766C26C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FD57D6-6BA1-4921-B77D-CC8F6B4141EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3045" yWindow="1110" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descrdkit" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
   <si>
     <t>MaxEStateIndex</t>
   </si>
@@ -371,13 +371,52 @@
   </si>
   <si>
     <t>Estate</t>
+  </si>
+  <si>
+    <t>mol property</t>
+  </si>
+  <si>
+    <t>Topological</t>
+  </si>
+  <si>
+    <t>Connectivity</t>
+  </si>
+  <si>
+    <t>Kappa</t>
+  </si>
+  <si>
+    <t>kappa</t>
+  </si>
+  <si>
+    <t>EState</t>
+  </si>
+  <si>
+    <t>MOE</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>morgan</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,24 +551,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,7 +734,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9E9E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,12 +947,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -929,6 +1005,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFA9E9E"/>
+      <color rgb="FF66FF66"/>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1239,1008 +1322,1285 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>12.923580340853</v>
-      </c>
-      <c r="C1" t="s">
-        <v>116</v>
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1.27112942286255</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>-0.82145834599575296</v>
-      </c>
-      <c r="C2" t="s">
-        <v>116</v>
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1778.42874853436</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9391786968.2763309</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.88372093023255804</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1.48837209302325</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2.13953488372093</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.15186042699399299</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4.5382999999999996</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="2">
+        <v>153.15259999999901</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="7">
+        <v>244.42360176037701</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="7">
+        <v>24.423643651081498</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="7">
+        <v>25.042715910744299</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="7">
+        <v>11.1638779383839</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="7">
+        <v>11.777733680792901</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="7">
+        <v>5.9483392809864899</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="7">
+        <v>11.938610575903599</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="7">
+        <v>4.5670996477913501</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="7">
+        <v>14.5730528890908</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="7">
+        <v>14.96036177453</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="7">
+        <v>54.597303616154399</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="7">
+        <v>36.398202410769599</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="7">
+        <v>11.984273114623001</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="7">
+        <v>17.454223058158501</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="7">
+        <v>34.012718019225197</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="7">
+        <v>34.948573139631698</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="7">
+        <v>19.5190352106329</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="7">
+        <v>4.9924047326356602</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="7">
+        <v>24.8566555691574</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="7">
+        <v>6.60688196451291</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="7">
+        <v>114.01318057677901</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="7">
+        <v>5.8799883364353702</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="7">
+        <v>5.9483392809864899</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="7">
+        <v>5.8799883364353702</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="7">
+        <v>66.383260660585194</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="7">
+        <v>14.210588861400099</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="7">
+        <v>38.9281516368955</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="7">
+        <v>102.315230834324</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="7">
+        <v>11.1638779383839</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="7">
+        <v>158.25</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="7">
+        <v>19.087278072895501</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="7">
+        <v>42.142407159836097</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="7">
+        <v>21.001966612041699</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="7">
+        <v>1.4230996369303599</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="7">
+        <v>-2.0889537667752802</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="7">
+        <v>25.612033273381002</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="7">
+        <v>-0.82100475065135503</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="7">
+        <v>-0.19015957099165501</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="7">
+        <v>0</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="5">
+        <v>-5.6199999999999903</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="5">
+        <v>27.545000319587601</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="5">
+        <v>12.0871687029748</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="5">
+        <v>6.0394222874982697</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="6">
+        <v>12.923580340853</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="6">
+        <v>-0.82145834599575296</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B64" s="6">
         <v>12.923580340853</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C64" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B65" s="6">
         <v>8.1978331555317294E-2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C65" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.15186042699399299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="6">
+        <v>36.254432858570503</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="6">
+        <v>19.802129157825</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="6">
+        <v>0</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="6">
+        <v>36.037666151167002</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="6">
+        <v>16.690354475090899</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="6">
+        <v>0</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="6">
+        <v>10.894419722555799</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="6">
+        <v>90.995506026924105</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="6">
+        <v>0</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="6">
+        <v>19.9443402954772</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="6">
+        <v>14.210588861400099</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B77" s="1">
         <v>579.56899999999996</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C77" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B78" s="1">
         <v>554.36900000000003</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C78" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B79" s="1">
         <v>579.17539813999997</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C79" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.16129032258064499</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="1">
+        <v>43</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="1">
+        <v>12</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="1">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="1">
+        <v>5</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="1">
+        <v>11</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="1">
+        <v>12</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+      <c r="C93" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.337994570178204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>-0.49276205106467302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0.49276205106467302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0.337994570178204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0.88372093023255804</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1.48837209302325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2.13953488372093</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1.27112942286255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1778.42874853436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>29.760573298318398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>22.555605297795001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>22.555605297795001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>20.957530133630101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>13.363072155744099</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>13.363072155744099</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>9.6118620200536302</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>9.6118620200536302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>6.77594411722131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>6.77594411722131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>4.6380563921149296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>4.6380563921149296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>-5.6199999999999903</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>9391786968.2763309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>27.545000319587601</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>12.0871687029748</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>6.0394222874982697</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>244.42360176037701</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>24.423643651081498</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>25.042715910744299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>11.1638779383839</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>11.777733680792901</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>5.9483392809864899</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>11.938610575903599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>4.5670996477913501</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>14.5730528890908</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>14.96036177453</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>54.597303616154399</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>36.398202410769599</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>11.984273114623001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>17.454223058158501</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>34.012718019225197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>34.948573139631698</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>19.5190352106329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>4.9924047326356602</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>24.8566555691574</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>6.60688196451291</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>114.01318057677901</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>5.8799883364353702</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>5.9483392809864899</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>5.8799883364353702</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>66.383260660585194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>14.210588861400099</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>38.9281516368955</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>102.315230834324</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>11.1638779383839</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>158.25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>36.254432858570503</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>19.802129157825</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>36.037666151167002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>16.690354475090899</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>10.894419722555799</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>90.995506026924105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>19.9443402954772</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>14.210588861400099</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>19.087278072895501</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>42.142407159836097</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>21.001966612041699</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>1.4230996369303599</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>-2.0889537667752802</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>25.612033273381002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>-0.82100475065135503</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>-0.19015957099165501</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>0.16129032258064499</v>
+      <c r="C94" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B97" s="1">
-        <v>43</v>
-      </c>
-      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" s="1">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>115</v>
+      <c r="A98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="4">
+        <v>29.760573298318398</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="1">
+      <c r="A99" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="4">
+        <v>22.555605297795001</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" s="4">
+        <v>22.555605297795001</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="4">
+        <v>20.957530133630101</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="4">
+        <v>13.363072155744099</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="4">
+        <v>13.363072155744099</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" s="4">
+        <v>9.6118620200536302</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="4">
+        <v>9.6118620200536302</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" s="4">
+        <v>6.77594411722131</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" s="4">
+        <v>6.77594411722131</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" s="4">
+        <v>4.6380563921149296</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="4">
+        <v>4.6380563921149296</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="8">
+        <v>216</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="8">
+        <v>0</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="8">
+        <v>0.337994570178204</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" s="8">
+        <v>-0.49276205106467302</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" s="1">
-        <v>0</v>
-      </c>
-      <c r="C100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" s="1">
-        <v>1</v>
-      </c>
-      <c r="C101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" s="1">
-        <v>1</v>
-      </c>
-      <c r="C102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" s="1">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" s="1">
-        <v>2</v>
-      </c>
-      <c r="C104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" s="1">
-        <v>5</v>
-      </c>
-      <c r="C105" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" s="1">
-        <v>11</v>
-      </c>
-      <c r="C106" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="1">
-        <v>2</v>
-      </c>
-      <c r="C107" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" s="1">
-        <v>12</v>
-      </c>
-      <c r="C108" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" s="1">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" s="1">
-        <v>0</v>
-      </c>
-      <c r="C110" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" s="1">
-        <v>1</v>
-      </c>
-      <c r="C111" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" s="1">
-        <v>1</v>
-      </c>
-      <c r="C112" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" s="1">
-        <v>6</v>
-      </c>
-      <c r="C113" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114">
-        <v>4.5382999999999996</v>
+      <c r="B114" s="8">
+        <v>0.49276205106467302</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115">
-        <v>153.15259999999901</v>
+      <c r="A115" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="8">
+        <v>0.337994570178204</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C115">
+    <sortCondition descending="1" ref="C1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
